--- a/Bas-Project/requirments&planning/burndown_Bas11.xlsx
+++ b/Bas-Project/requirments&planning/burndown_Bas11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365zadkine-my.sharepoint.com/personal/9021542_student_zadkine_nl/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4577A3AB-DD71-498C-A6B0-3CCDB27316D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{F75E1A51-4EF8-4141-833B-D0C1653CC74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{623DE1B0-FC23-437A-B14B-1613D50AB4A2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>Taak</t>
   </si>
@@ -575,31 +575,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,28 +710,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>97</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.875</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.75</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60.625</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.375</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.25</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.125</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1888,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2038,9 +2038,11 @@
         <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2053,10 +2055,10 @@
       <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
@@ -2071,10 +2073,10 @@
       <c r="A9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
@@ -2089,10 +2091,10 @@
       <c r="A10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
@@ -2107,11 +2109,13 @@
       <c r="A11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2123,9 +2127,7 @@
       <c r="A12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2141,9 +2143,7 @@
       <c r="A13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2159,9 +2159,7 @@
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2175,9 +2173,7 @@
       <c r="A15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2193,9 +2189,7 @@
       <c r="A16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2209,9 +2203,7 @@
       <c r="A17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2227,9 +2219,7 @@
       <c r="A18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1">
-        <v>3</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2243,9 +2233,7 @@
       <c r="A19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2260,9 +2248,7 @@
       <c r="A20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
-        <v>5</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -2276,9 +2262,7 @@
       <c r="A21" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2293,9 +2277,7 @@
       <c r="A22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>3</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2309,9 +2291,7 @@
       <c r="A23" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2326,9 +2306,7 @@
       <c r="A24" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2343,9 +2321,7 @@
       <c r="A25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1">
-        <v>3</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2359,9 +2335,7 @@
       <c r="A26" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2375,9 +2349,7 @@
       <c r="A27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="1">
-        <v>3</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2391,9 +2363,7 @@
       <c r="A28" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2407,9 +2377,7 @@
       <c r="A29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="1">
-        <v>5</v>
-      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2423,9 +2391,7 @@
       <c r="A30" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2439,9 +2405,7 @@
       <c r="A31" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="1">
-        <v>3</v>
-      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2454,9 +2418,7 @@
       <c r="A32" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="1">
-        <v>2</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -2470,9 +2432,7 @@
       <c r="A33" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="1">
-        <v>3</v>
-      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2486,9 +2446,7 @@
       <c r="A34" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="1">
-        <v>2</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2502,9 +2460,7 @@
       <c r="A35" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="1">
-        <v>3</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -2518,9 +2474,7 @@
       <c r="A36" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="1">
-        <v>2</v>
-      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2535,9 +2489,7 @@
       <c r="A37" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="1">
-        <v>3</v>
-      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2553,9 +2505,7 @@
       <c r="A38" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="1">
-        <v>2</v>
-      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2571,9 +2521,7 @@
       <c r="A39" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="1">
-        <v>3</v>
-      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2589,9 +2537,7 @@
       <c r="A40" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="1">
-        <v>2</v>
-      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2609,39 +2555,39 @@
       </c>
       <c r="B41" s="6">
         <f>SUM(B3:B40)</f>
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="C41" s="7">
         <f>B$41-SUM(C3:C40)</f>
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="D41" s="7">
-        <f t="shared" ref="C41:H41" si="0">C$41-SUM(D3:D40)</f>
-        <v>97</v>
+        <f>C$41-SUM(D3:D40)</f>
+        <v>2</v>
       </c>
       <c r="E41" s="7">
-        <f t="shared" si="0"/>
-        <v>97</v>
+        <f>D$41-SUM(E3:E40)</f>
+        <v>2</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="0"/>
-        <v>97</v>
+        <f>E$41-SUM(F3:F40)</f>
+        <v>2</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="0"/>
-        <v>97</v>
+        <f>F$41-SUM(G3:G40)</f>
+        <v>2</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" si="0"/>
-        <v>97</v>
+        <f>G$41-SUM(H3:H40)</f>
+        <v>2</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" ref="I41:J41" si="1">H$41-SUM(I3:I40)</f>
-        <v>97</v>
+        <f>H$41-SUM(I3:I40)</f>
+        <v>2</v>
       </c>
       <c r="J41" s="7">
-        <f t="shared" si="1"/>
-        <v>97</v>
+        <f>I$41-SUM(J3:J40)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2650,38 +2596,38 @@
       </c>
       <c r="B42" s="9">
         <f>B41</f>
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="C42" s="10">
-        <f t="shared" ref="C42:J42" si="2">B$42-$B$42/COUNTA($C$1:$J$1)</f>
-        <v>84.875</v>
+        <f>B$42-$B$42/COUNTA($C$1:$J$1)</f>
+        <v>14</v>
       </c>
       <c r="D42" s="10">
-        <f t="shared" si="2"/>
-        <v>72.75</v>
+        <f>C$42-$B$42/COUNTA($C$1:$J$1)</f>
+        <v>12</v>
       </c>
       <c r="E42" s="10">
-        <f t="shared" si="2"/>
-        <v>60.625</v>
+        <f>D$42-$B$42/COUNTA($C$1:$J$1)</f>
+        <v>10</v>
       </c>
       <c r="F42" s="10">
-        <f t="shared" si="2"/>
-        <v>48.5</v>
+        <f>E$42-$B$42/COUNTA($C$1:$J$1)</f>
+        <v>8</v>
       </c>
       <c r="G42" s="10">
-        <f t="shared" si="2"/>
-        <v>36.375</v>
+        <f>F$42-$B$42/COUNTA($C$1:$J$1)</f>
+        <v>6</v>
       </c>
       <c r="H42" s="10">
-        <f t="shared" si="2"/>
-        <v>24.25</v>
+        <f>G$42-$B$42/COUNTA($C$1:$J$1)</f>
+        <v>4</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" si="2"/>
-        <v>12.125</v>
+        <f>H$42-$B$42/COUNTA($C$1:$J$1)</f>
+        <v>2</v>
       </c>
       <c r="J42" s="10">
-        <f t="shared" si="2"/>
+        <f>I$42-$B$42/COUNTA($C$1:$J$1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2694,6 +2640,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -2942,16 +2897,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2968,12 +2922,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>